--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.08446149999999999</v>
+        <v>1.2952555</v>
       </c>
       <c r="H2">
-        <v>0.168923</v>
+        <v>2.590511</v>
       </c>
       <c r="I2">
-        <v>0.0006992340632328751</v>
+        <v>0.001383528484504061</v>
       </c>
       <c r="J2">
-        <v>0.0004668674295465215</v>
+        <v>0.0009231227342649146</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N2">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O2">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P2">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q2">
-        <v>74.74179030417625</v>
+        <v>1309.737830756086</v>
       </c>
       <c r="R2">
-        <v>298.967161216705</v>
+        <v>5238.951323024343</v>
       </c>
       <c r="S2">
-        <v>0.0003497101789698566</v>
+        <v>0.001054704788497733</v>
       </c>
       <c r="T2">
-        <v>0.0001924123923221706</v>
+        <v>0.0006588231747084671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.08446149999999999</v>
+        <v>1.2952555</v>
       </c>
       <c r="H3">
-        <v>0.168923</v>
+        <v>2.590511</v>
       </c>
       <c r="I3">
-        <v>0.0006992340632328751</v>
+        <v>0.001383528484504061</v>
       </c>
       <c r="J3">
-        <v>0.0004668674295465215</v>
+        <v>0.0009231227342649146</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N3">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O3">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P3">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q3">
-        <v>14.90957780241783</v>
+        <v>228.6451537239999</v>
       </c>
       <c r="R3">
-        <v>89.45746681450699</v>
+        <v>1371.870922343999</v>
       </c>
       <c r="S3">
-        <v>6.976058641931142E-05</v>
+        <v>0.0001841232136971183</v>
       </c>
       <c r="T3">
-        <v>5.757396608647566E-05</v>
+        <v>0.000172519326983773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.08446149999999999</v>
+        <v>1.2952555</v>
       </c>
       <c r="H4">
-        <v>0.168923</v>
+        <v>2.590511</v>
       </c>
       <c r="I4">
-        <v>0.0006992340632328751</v>
+        <v>0.001383528484504061</v>
       </c>
       <c r="J4">
-        <v>0.0004668674295465215</v>
+        <v>0.0009231227342649146</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N4">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O4">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P4">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q4">
-        <v>0.1846043473206667</v>
+        <v>0.5177451412338334</v>
       </c>
       <c r="R4">
-        <v>1.107626083924</v>
+        <v>3.106470847403001</v>
       </c>
       <c r="S4">
-        <v>8.637472968923074E-07</v>
+        <v>4.169294547791484E-07</v>
       </c>
       <c r="T4">
-        <v>7.128575049477569E-07</v>
+        <v>3.906535601563629E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.08446149999999999</v>
+        <v>1.2952555</v>
       </c>
       <c r="H5">
-        <v>0.168923</v>
+        <v>2.590511</v>
       </c>
       <c r="I5">
-        <v>0.0006992340632328751</v>
+        <v>0.001383528484504061</v>
       </c>
       <c r="J5">
-        <v>0.0004668674295465215</v>
+        <v>0.0009231227342649146</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N5">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O5">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P5">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q5">
-        <v>10.88409720174625</v>
+        <v>174.1519404019203</v>
       </c>
       <c r="R5">
-        <v>43.53638880698499</v>
+        <v>696.607761607681</v>
       </c>
       <c r="S5">
-        <v>5.092572127129415E-05</v>
+        <v>0.0001402409559797498</v>
       </c>
       <c r="T5">
-        <v>2.801960151519171E-05</v>
+        <v>8.760175629270665E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.08446149999999999</v>
+        <v>1.2952555</v>
       </c>
       <c r="H6">
-        <v>0.168923</v>
+        <v>2.590511</v>
       </c>
       <c r="I6">
-        <v>0.0006992340632328751</v>
+        <v>0.001383528484504061</v>
       </c>
       <c r="J6">
-        <v>0.0004668674295465215</v>
+        <v>0.0009231227342649146</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N6">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O6">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P6">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q6">
-        <v>48.620620253914</v>
+        <v>2.730727588897</v>
       </c>
       <c r="R6">
-        <v>291.723721523484</v>
+        <v>16.384365533382</v>
       </c>
       <c r="S6">
-        <v>0.0002274915511312235</v>
+        <v>2.198998453323979E-06</v>
       </c>
       <c r="T6">
-        <v>0.0001877505841344687</v>
+        <v>2.060412294507696E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.08446149999999999</v>
+        <v>1.2952555</v>
       </c>
       <c r="H7">
-        <v>0.168923</v>
+        <v>2.590511</v>
       </c>
       <c r="I7">
-        <v>0.0006992340632328751</v>
+        <v>0.001383528484504061</v>
       </c>
       <c r="J7">
-        <v>0.0004668674295465215</v>
+        <v>0.0009231227342649146</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N7">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O7">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P7">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q7">
-        <v>0.1030748719855</v>
+        <v>2.289390001360001</v>
       </c>
       <c r="R7">
-        <v>0.6184492319129999</v>
+        <v>13.73634000816</v>
       </c>
       <c r="S7">
-        <v>4.822781442971422E-07</v>
+        <v>1.843598421356819E-06</v>
       </c>
       <c r="T7">
-        <v>3.980279832671474E-07</v>
+        <v>1.727410425303708E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>138.711663</v>
       </c>
       <c r="I8">
-        <v>0.3827855284647611</v>
+        <v>0.04938833480947145</v>
       </c>
       <c r="J8">
-        <v>0.3833696865017395</v>
+        <v>0.04942958729879678</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N8">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O8">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P8">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q8">
-        <v>40916.30714858077</v>
+        <v>46754.20218847148</v>
       </c>
       <c r="R8">
-        <v>245497.8428914846</v>
+        <v>280525.2131308289</v>
       </c>
       <c r="S8">
-        <v>0.1914437563976346</v>
+        <v>0.03765019210150271</v>
       </c>
       <c r="T8">
-        <v>0.1580000528099591</v>
+        <v>0.03527738665720817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>138.711663</v>
       </c>
       <c r="I9">
-        <v>0.3827855284647611</v>
+        <v>0.04938833480947145</v>
       </c>
       <c r="J9">
-        <v>0.3833696865017395</v>
+        <v>0.04942958729879678</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N9">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O9">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P9">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q9">
-        <v>8162.031740699462</v>
+        <v>8162.031740699463</v>
       </c>
       <c r="R9">
-        <v>73458.28566629515</v>
+        <v>73458.28566629517</v>
       </c>
       <c r="S9">
-        <v>0.03818941945572008</v>
+        <v>0.006572715362292525</v>
       </c>
       <c r="T9">
-        <v>0.04727704682820362</v>
+        <v>0.009237730604332473</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>138.711663</v>
       </c>
       <c r="I10">
-        <v>0.3827855284647611</v>
+        <v>0.04938833480947145</v>
       </c>
       <c r="J10">
-        <v>0.3833696865017395</v>
+        <v>0.04942958729879678</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N10">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O10">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P10">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q10">
-        <v>101.058967750116</v>
+        <v>18.482142339411</v>
       </c>
       <c r="R10">
-        <v>909.530709751044</v>
+        <v>166.339281054699</v>
       </c>
       <c r="S10">
-        <v>0.0004728459079528807</v>
+        <v>1.488328699784173E-05</v>
       </c>
       <c r="T10">
-        <v>0.000585365225536689</v>
+        <v>2.091795981030755E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>138.711663</v>
       </c>
       <c r="I11">
-        <v>0.3827855284647611</v>
+        <v>0.04938833480947145</v>
       </c>
       <c r="J11">
-        <v>0.3833696865017395</v>
+        <v>0.04942958729879678</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N11">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O11">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P11">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q11">
-        <v>5958.340873683547</v>
+        <v>6216.767082589045</v>
       </c>
       <c r="R11">
-        <v>35750.04524210128</v>
+        <v>37300.60249553427</v>
       </c>
       <c r="S11">
-        <v>0.02787854618974596</v>
+        <v>0.005006233963018848</v>
       </c>
       <c r="T11">
-        <v>0.02300838561219942</v>
+        <v>0.004690729086686778</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>138.711663</v>
       </c>
       <c r="I12">
-        <v>0.3827855284647611</v>
+        <v>0.04938833480947145</v>
       </c>
       <c r="J12">
-        <v>0.3833696865017395</v>
+        <v>0.04942958729879678</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N12">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O12">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P12">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q12">
-        <v>26616.65212951815</v>
+        <v>97.47980612213399</v>
       </c>
       <c r="R12">
-        <v>239549.8691656634</v>
+        <v>877.3182550992059</v>
       </c>
       <c r="S12">
-        <v>0.1245369443508247</v>
+        <v>7.849847189608458E-05</v>
       </c>
       <c r="T12">
-        <v>0.1541719940713436</v>
+        <v>0.0001103269647713553</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>138.711663</v>
       </c>
       <c r="I13">
-        <v>0.3827855284647611</v>
+        <v>0.04938833480947145</v>
       </c>
       <c r="J13">
-        <v>0.3833696865017395</v>
+        <v>0.04942958729879678</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N13">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O13">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P13">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q13">
-        <v>56.426841052317</v>
+        <v>81.72521286192</v>
       </c>
       <c r="R13">
-        <v>507.841569470853</v>
+        <v>735.52691575728</v>
       </c>
       <c r="S13">
-        <v>0.0002640161628829331</v>
+        <v>6.581162376344E-05</v>
       </c>
       <c r="T13">
-        <v>0.0003268419544971507</v>
+        <v>9.249602598769686E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51.88311633333333</v>
+        <v>105.2591523333333</v>
       </c>
       <c r="H14">
-        <v>155.649349</v>
+        <v>315.777457</v>
       </c>
       <c r="I14">
-        <v>0.4295263788464639</v>
+        <v>0.11243267101195</v>
       </c>
       <c r="J14">
-        <v>0.4301818667571582</v>
+        <v>0.1125265824098263</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N14">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O14">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P14">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q14">
-        <v>45912.48085001074</v>
+        <v>106436.0613363806</v>
       </c>
       <c r="R14">
-        <v>275474.8851000644</v>
+        <v>638616.3680182839</v>
       </c>
       <c r="S14">
-        <v>0.214820408096516</v>
+        <v>0.08571075899633626</v>
       </c>
       <c r="T14">
-        <v>0.1772929891398948</v>
+        <v>0.08030906130956651</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>51.88311633333333</v>
+        <v>105.2591523333333</v>
       </c>
       <c r="H15">
-        <v>155.649349</v>
+        <v>315.777457</v>
       </c>
       <c r="I15">
-        <v>0.4295263788464639</v>
+        <v>0.11243267101195</v>
       </c>
       <c r="J15">
-        <v>0.4301818667571582</v>
+        <v>0.1125265824098263</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N15">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O15">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P15">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q15">
-        <v>9158.674184139858</v>
+        <v>18580.88621597277</v>
       </c>
       <c r="R15">
-        <v>82428.06765725873</v>
+        <v>167227.975943755</v>
       </c>
       <c r="S15">
-        <v>0.04285262066947294</v>
+        <v>0.01496280339952069</v>
       </c>
       <c r="T15">
-        <v>0.05304991233110953</v>
+        <v>0.02102971744118721</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>51.88311633333333</v>
+        <v>105.2591523333333</v>
       </c>
       <c r="H16">
-        <v>155.649349</v>
+        <v>315.777457</v>
       </c>
       <c r="I16">
-        <v>0.4295263788464639</v>
+        <v>0.11243267101195</v>
       </c>
       <c r="J16">
-        <v>0.4301818667571582</v>
+        <v>0.1125265824098263</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N16">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O16">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P16">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q16">
-        <v>113.3989904000902</v>
+        <v>42.07464449367345</v>
       </c>
       <c r="R16">
-        <v>1020.590913600812</v>
+        <v>378.671800443061</v>
       </c>
       <c r="S16">
-        <v>0.0005305837747052301</v>
+        <v>3.388184106753609E-05</v>
       </c>
       <c r="T16">
-        <v>0.0006568425056083699</v>
+        <v>4.761978922080346E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>51.88311633333333</v>
+        <v>105.2591523333333</v>
       </c>
       <c r="H17">
-        <v>155.649349</v>
+        <v>315.777457</v>
       </c>
       <c r="I17">
-        <v>0.4295263788464639</v>
+        <v>0.11243267101195</v>
       </c>
       <c r="J17">
-        <v>0.4301818667571582</v>
+        <v>0.1125265824098263</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N17">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O17">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P17">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q17">
-        <v>6685.896903340676</v>
+        <v>14152.48622678021</v>
       </c>
       <c r="R17">
-        <v>40115.38142004405</v>
+        <v>84914.91736068125</v>
       </c>
       <c r="S17">
-        <v>0.03128271604313755</v>
+        <v>0.01139670447170058</v>
       </c>
       <c r="T17">
-        <v>0.0258178740318311</v>
+        <v>0.01067845681058473</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>51.88311633333333</v>
+        <v>105.2591523333333</v>
       </c>
       <c r="H18">
-        <v>155.649349</v>
+        <v>315.777457</v>
       </c>
       <c r="I18">
-        <v>0.4295263788464639</v>
+        <v>0.11243267101195</v>
       </c>
       <c r="J18">
-        <v>0.4301818667571582</v>
+        <v>0.1125265824098263</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N18">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O18">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P18">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q18">
-        <v>29866.73569416412</v>
+        <v>221.9130289433594</v>
       </c>
       <c r="R18">
-        <v>268800.6212474771</v>
+        <v>1997.217260490234</v>
       </c>
       <c r="S18">
-        <v>0.1397437958382425</v>
+        <v>0.0001787019728379405</v>
       </c>
       <c r="T18">
-        <v>0.1729974970542779</v>
+        <v>0.0002511596185969392</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>51.88311633333333</v>
+        <v>105.2591523333333</v>
       </c>
       <c r="H19">
-        <v>155.649349</v>
+        <v>315.777457</v>
       </c>
       <c r="I19">
-        <v>0.4295263788464639</v>
+        <v>0.11243267101195</v>
       </c>
       <c r="J19">
-        <v>0.4301818667571582</v>
+        <v>0.1125265824098263</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N19">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O19">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P19">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q19">
-        <v>63.31696186152433</v>
+        <v>186.0476569322134</v>
       </c>
       <c r="R19">
-        <v>569.852656753719</v>
+        <v>1674.42891238992</v>
       </c>
       <c r="S19">
-        <v>0.0002962544243897249</v>
+        <v>0.0001498203304869891</v>
       </c>
       <c r="T19">
-        <v>0.0003667516944366036</v>
+        <v>0.0002105674406700815</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.467705</v>
+        <v>1.048713</v>
       </c>
       <c r="H20">
-        <v>0.9354100000000001</v>
+        <v>2.097426</v>
       </c>
       <c r="I20">
-        <v>0.003872004020107764</v>
+        <v>0.001120183861461856</v>
       </c>
       <c r="J20">
-        <v>0.002585275316399257</v>
+        <v>0.0007474130100348243</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N20">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O20">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P20">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q20">
-        <v>413.8821715718375</v>
+        <v>1060.438724024493</v>
       </c>
       <c r="R20">
-        <v>1655.52868628735</v>
+        <v>4241.754896097972</v>
       </c>
       <c r="S20">
-        <v>0.001936517812909986</v>
+        <v>0.0008539493735867735</v>
       </c>
       <c r="T20">
-        <v>0.00106548235528662</v>
+        <v>0.0005334209567286459</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.467705</v>
+        <v>1.048713</v>
       </c>
       <c r="H21">
-        <v>0.9354100000000001</v>
+        <v>2.097426</v>
       </c>
       <c r="I21">
-        <v>0.003872004020107764</v>
+        <v>0.001120183861461856</v>
       </c>
       <c r="J21">
-        <v>0.002585275316399257</v>
+        <v>0.0007474130100348243</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N21">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O21">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P21">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q21">
-        <v>82.56168888878166</v>
+        <v>185.124205299539</v>
       </c>
       <c r="R21">
-        <v>495.37013333269</v>
+        <v>1110.745231797234</v>
       </c>
       <c r="S21">
-        <v>0.0003862987878648148</v>
+        <v>0.0001490766939850447</v>
       </c>
       <c r="T21">
-        <v>0.0003188154580308791</v>
+        <v>0.0001396815230347476</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.467705</v>
+        <v>1.048713</v>
       </c>
       <c r="H22">
-        <v>0.9354100000000001</v>
+        <v>2.097426</v>
       </c>
       <c r="I22">
-        <v>0.003872004020107764</v>
+        <v>0.001120183861461856</v>
       </c>
       <c r="J22">
-        <v>0.002585275316399257</v>
+        <v>0.0007474130100348243</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N22">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O22">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P22">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q22">
-        <v>1.022245357513333</v>
+        <v>0.419196104783</v>
       </c>
       <c r="R22">
-        <v>6.133472145080001</v>
+        <v>2.515176628698</v>
       </c>
       <c r="S22">
-        <v>4.78299496803889E-06</v>
+        <v>3.375699538120509E-07</v>
       </c>
       <c r="T22">
-        <v>3.947443738882102E-06</v>
+        <v>3.162954853557926E-07</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.467705</v>
+        <v>1.048713</v>
       </c>
       <c r="H23">
-        <v>0.9354100000000001</v>
+        <v>2.097426</v>
       </c>
       <c r="I23">
-        <v>0.003872004020107764</v>
+        <v>0.001120183861461856</v>
       </c>
       <c r="J23">
-        <v>0.002585275316399257</v>
+        <v>0.0007474130100348243</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N23">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O23">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P23">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q23">
-        <v>60.27061657373751</v>
+        <v>141.0033803174115</v>
       </c>
       <c r="R23">
-        <v>241.08246629495</v>
+        <v>564.0135212696459</v>
       </c>
       <c r="S23">
-        <v>0.0002820008461510941</v>
+        <v>0.0001135471060870935</v>
       </c>
       <c r="T23">
-        <v>0.0001551583588577369</v>
+        <v>7.092739667732988E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.467705</v>
+        <v>1.048713</v>
       </c>
       <c r="H24">
-        <v>0.9354100000000001</v>
+        <v>2.097426</v>
       </c>
       <c r="I24">
-        <v>0.003872004020107764</v>
+        <v>0.001120183861461856</v>
       </c>
       <c r="J24">
-        <v>0.002585275316399257</v>
+        <v>0.0007474130100348243</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N24">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O24">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P24">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q24">
-        <v>269.23636444838</v>
+        <v>2.210953377102</v>
       </c>
       <c r="R24">
-        <v>1615.41818669028</v>
+        <v>13.265720262612</v>
       </c>
       <c r="S24">
-        <v>0.001259732966165991</v>
+        <v>1.78043502998501E-06</v>
       </c>
       <c r="T24">
-        <v>0.001039667623149147</v>
+        <v>1.668227742410706E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.467705</v>
+        <v>1.048713</v>
       </c>
       <c r="H25">
-        <v>0.9354100000000001</v>
+        <v>2.097426</v>
       </c>
       <c r="I25">
-        <v>0.003872004020107764</v>
+        <v>0.001120183861461856</v>
       </c>
       <c r="J25">
-        <v>0.002585275316399257</v>
+        <v>0.0007474130100348243</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N25">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O25">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P25">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q25">
-        <v>0.570776424785</v>
+        <v>1.85362120176</v>
       </c>
       <c r="R25">
-        <v>3.424658548710001</v>
+        <v>11.12172721056</v>
       </c>
       <c r="S25">
-        <v>2.670612047838304E-06</v>
+        <v>1.492682819147553E-06</v>
       </c>
       <c r="T25">
-        <v>2.204077335992863E-06</v>
+        <v>1.398610366334308E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6303196666666667</v>
+        <v>742.2616576666668</v>
       </c>
       <c r="H26">
-        <v>1.890959</v>
+        <v>2226.784973</v>
       </c>
       <c r="I26">
-        <v>0.005218247149990526</v>
+        <v>0.7928475473271767</v>
       </c>
       <c r="J26">
-        <v>0.005226210567583224</v>
+        <v>0.7935097874109718</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N26">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O26">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P26">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q26">
-        <v>557.7833729047943</v>
+        <v>750560.9305389989</v>
       </c>
       <c r="R26">
-        <v>3346.700237428765</v>
+        <v>4503365.583233994</v>
       </c>
       <c r="S26">
-        <v>0.002609818715488363</v>
+        <v>0.6044111950571132</v>
       </c>
       <c r="T26">
-        <v>0.002153904115917545</v>
+        <v>0.5663197513173919</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.6303196666666667</v>
+        <v>742.2616576666668</v>
       </c>
       <c r="H27">
-        <v>1.890959</v>
+        <v>2226.784973</v>
       </c>
       <c r="I27">
-        <v>0.005218247149990526</v>
+        <v>0.7928475473271767</v>
       </c>
       <c r="J27">
-        <v>0.005226210567583224</v>
+        <v>0.7935097874109718</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N27">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O27">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P27">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q27">
-        <v>111.2672650919146</v>
+        <v>131027.8403146144</v>
       </c>
       <c r="R27">
-        <v>1001.405385827231</v>
+        <v>1179250.562831529</v>
       </c>
       <c r="S27">
-        <v>0.0005206096218785077</v>
+        <v>0.1055140100263901</v>
       </c>
       <c r="T27">
-        <v>0.0006444948842781382</v>
+        <v>0.1482963959155314</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.6303196666666667</v>
+        <v>742.2616576666668</v>
       </c>
       <c r="H28">
-        <v>1.890959</v>
+        <v>2226.784973</v>
       </c>
       <c r="I28">
-        <v>0.005218247149990526</v>
+        <v>0.7928475473271767</v>
       </c>
       <c r="J28">
-        <v>0.005226210567583224</v>
+        <v>0.7935097874109718</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N28">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O28">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P28">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q28">
-        <v>1.377666163499111</v>
+        <v>296.7000462697033</v>
       </c>
       <c r="R28">
-        <v>12.398995471492</v>
+        <v>2670.300416427329</v>
       </c>
       <c r="S28">
-        <v>6.445977259004324E-06</v>
+        <v>0.0002389264112249902</v>
       </c>
       <c r="T28">
-        <v>7.979874349250876E-06</v>
+        <v>0.0003358030432625611</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.6303196666666667</v>
+        <v>742.2616576666668</v>
       </c>
       <c r="H29">
-        <v>1.890959</v>
+        <v>2226.784973</v>
       </c>
       <c r="I29">
-        <v>0.005218247149990526</v>
+        <v>0.7928475473271767</v>
       </c>
       <c r="J29">
-        <v>0.005226210567583224</v>
+        <v>0.7935097874109718</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N29">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O29">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P29">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q29">
-        <v>81.22589014133418</v>
+        <v>99799.85259170555</v>
       </c>
       <c r="R29">
-        <v>487.355340848005</v>
+        <v>598799.1155502333</v>
       </c>
       <c r="S29">
-        <v>0.0003800487045160424</v>
+        <v>0.08036675733728758</v>
       </c>
       <c r="T29">
-        <v>0.0003136572145981626</v>
+        <v>0.0753018514574952</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.6303196666666667</v>
+        <v>742.2616576666668</v>
       </c>
       <c r="H30">
-        <v>1.890959</v>
+        <v>2226.784973</v>
       </c>
       <c r="I30">
-        <v>0.005218247149990526</v>
+        <v>0.7928475473271767</v>
       </c>
       <c r="J30">
-        <v>0.005226210567583224</v>
+        <v>0.7935097874109718</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N30">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O30">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P30">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q30">
-        <v>362.8461861507747</v>
+        <v>1564.876108822381</v>
       </c>
       <c r="R30">
-        <v>3265.615675356972</v>
+        <v>14083.88497940143</v>
       </c>
       <c r="S30">
-        <v>0.001697724983318029</v>
+        <v>0.001260162367324974</v>
       </c>
       <c r="T30">
-        <v>0.002101718870872118</v>
+        <v>0.001771115866944471</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.6303196666666667</v>
+        <v>742.2616576666668</v>
       </c>
       <c r="H31">
-        <v>1.890959</v>
+        <v>2226.784973</v>
       </c>
       <c r="I31">
-        <v>0.005218247149990526</v>
+        <v>0.7928475473271767</v>
       </c>
       <c r="J31">
-        <v>0.005226210567583224</v>
+        <v>0.7935097874109718</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N31">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O31">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P31">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q31">
-        <v>0.7692276238476667</v>
+        <v>1311.962325158987</v>
       </c>
       <c r="R31">
-        <v>6.923048614629001</v>
+        <v>11807.66092643088</v>
       </c>
       <c r="S31">
-        <v>3.599147530578942E-06</v>
+        <v>0.001056496127835753</v>
       </c>
       <c r="T31">
-        <v>4.455607568009459E-06</v>
+        <v>0.001484869810346235</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.48863166666666</v>
+        <v>40.09520533333333</v>
       </c>
       <c r="H32">
-        <v>64.46589499999999</v>
+        <v>120.285616</v>
       </c>
       <c r="I32">
-        <v>0.1778986074554437</v>
+        <v>0.04282773450543605</v>
       </c>
       <c r="J32">
-        <v>0.1781700934275732</v>
+        <v>0.0428635071361054</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>884.9214175000001</v>
+        <v>1011.181061</v>
       </c>
       <c r="N32">
-        <v>1769.842835</v>
+        <v>2022.362122</v>
       </c>
       <c r="O32">
-        <v>0.5001332134092387</v>
+        <v>0.762329652270081</v>
       </c>
       <c r="P32">
-        <v>0.4121349662559775</v>
+        <v>0.7136896863807498</v>
       </c>
       <c r="Q32">
-        <v>19015.75039460205</v>
+        <v>40543.51226997286</v>
       </c>
       <c r="R32">
-        <v>114094.5023676123</v>
+        <v>243261.0736198371</v>
       </c>
       <c r="S32">
-        <v>0.08897300220771981</v>
+        <v>0.03264885195304441</v>
       </c>
       <c r="T32">
-        <v>0.07343012544259724</v>
+        <v>0.03059124296514609</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.48863166666666</v>
+        <v>40.09520533333333</v>
       </c>
       <c r="H33">
-        <v>64.46589499999999</v>
+        <v>120.285616</v>
       </c>
       <c r="I33">
-        <v>0.1778986074554437</v>
+        <v>0.04282773450543605</v>
       </c>
       <c r="J33">
-        <v>0.1781700934275732</v>
+        <v>0.0428635071361054</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>176.5251363333333</v>
       </c>
       <c r="N33">
-        <v>529.5754089999999</v>
+        <v>529.575409</v>
       </c>
       <c r="O33">
-        <v>0.09976714534869298</v>
+        <v>0.1330823439917242</v>
       </c>
       <c r="P33">
-        <v>0.123319731561481</v>
+        <v>0.1868866626073841</v>
       </c>
       <c r="Q33">
-        <v>3793.283634575116</v>
+        <v>7077.811587779661</v>
       </c>
       <c r="R33">
-        <v>34139.55271117605</v>
+        <v>63700.30429001695</v>
       </c>
       <c r="S33">
-        <v>0.01774843622733733</v>
+        <v>0.005699615295838675</v>
       </c>
       <c r="T33">
-        <v>0.02197188809377231</v>
+        <v>0.008010617796314531</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.48863166666666</v>
+        <v>40.09520533333333</v>
       </c>
       <c r="H34">
-        <v>64.46589499999999</v>
+        <v>120.285616</v>
       </c>
       <c r="I34">
-        <v>0.1778986074554437</v>
+        <v>0.04282773450543605</v>
       </c>
       <c r="J34">
-        <v>0.1781700934275732</v>
+        <v>0.0428635071361054</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>2.185662666666667</v>
+        <v>0.3997243333333333</v>
       </c>
       <c r="N34">
-        <v>6.556988</v>
+        <v>1.199173</v>
       </c>
       <c r="O34">
-        <v>0.001235276343516237</v>
+        <v>0.0003013522738771805</v>
       </c>
       <c r="P34">
-        <v>0.001526894916700809</v>
+        <v>0.0004231870212441918</v>
       </c>
       <c r="Q34">
-        <v>46.96689999158444</v>
+        <v>16.02702922172978</v>
       </c>
       <c r="R34">
-        <v>422.70209992426</v>
+        <v>144.243262995568</v>
       </c>
       <c r="S34">
-        <v>0.000219753941334191</v>
+        <v>1.290623517822134E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002720470099626698</v>
+        <v>1.813927990500761E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.48863166666666</v>
+        <v>40.09520533333333</v>
       </c>
       <c r="H35">
-        <v>64.46589499999999</v>
+        <v>120.285616</v>
       </c>
       <c r="I35">
-        <v>0.1778986074554437</v>
+        <v>0.04282773450543605</v>
       </c>
       <c r="J35">
-        <v>0.1781700934275732</v>
+        <v>0.0428635071361054</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>128.8645975</v>
+        <v>134.4537355</v>
       </c>
       <c r="N35">
-        <v>257.729195</v>
+        <v>268.907471</v>
       </c>
       <c r="O35">
-        <v>0.07283072142658716</v>
+        <v>0.1013647044860232</v>
       </c>
       <c r="P35">
-        <v>0.0600161839141526</v>
+        <v>0.09489719301785389</v>
       </c>
       <c r="Q35">
-        <v>2769.123870550754</v>
+        <v>5390.950132706189</v>
       </c>
       <c r="R35">
-        <v>16614.74322330452</v>
+        <v>32345.70079623713</v>
       </c>
       <c r="S35">
-        <v>0.0129564839217652</v>
+        <v>0.004341220651949385</v>
       </c>
       <c r="T35">
-        <v>0.01069308909515099</v>
+        <v>0.004067626510117152</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.48863166666666</v>
+        <v>40.09520533333333</v>
       </c>
       <c r="H36">
-        <v>64.46589499999999</v>
+        <v>120.285616</v>
       </c>
       <c r="I36">
-        <v>0.1778986074554437</v>
+        <v>0.04282773450543605</v>
       </c>
       <c r="J36">
-        <v>0.1781700934275732</v>
+        <v>0.0428635071361054</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>575.654236</v>
+        <v>2.108254</v>
       </c>
       <c r="N36">
-        <v>1726.962708</v>
+        <v>6.324762</v>
       </c>
       <c r="O36">
-        <v>0.3253439200021624</v>
+        <v>0.001589413212632359</v>
       </c>
       <c r="P36">
-        <v>0.4021496730171024</v>
+        <v>0.002232002547471013</v>
       </c>
       <c r="Q36">
-        <v>12370.0218447604</v>
+        <v>84.53087702482134</v>
       </c>
       <c r="R36">
-        <v>111330.1966028436</v>
+        <v>760.7778932233919</v>
       </c>
       <c r="S36">
-        <v>0.05787823031247998</v>
+        <v>6.807096709005083E-05</v>
       </c>
       <c r="T36">
-        <v>0.07165104481332514</v>
+        <v>9.567145712132921E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.48863166666666</v>
+        <v>40.09520533333333</v>
       </c>
       <c r="H37">
-        <v>64.46589499999999</v>
+        <v>120.285616</v>
       </c>
       <c r="I37">
-        <v>0.1778986074554437</v>
+        <v>0.04282773450543605</v>
       </c>
       <c r="J37">
-        <v>0.1781700934275732</v>
+        <v>0.0428635071361054</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.220377</v>
+        <v>1.76752</v>
       </c>
       <c r="N37">
-        <v>3.661131</v>
+        <v>5.302560000000001</v>
       </c>
       <c r="O37">
-        <v>0.00068972346980259</v>
+        <v>0.001332533765661987</v>
       </c>
       <c r="P37">
-        <v>0.000852550334585903</v>
+        <v>0.001871268425296936</v>
       </c>
       <c r="Q37">
-        <v>26.22423184747166</v>
+        <v>70.86907733077334</v>
       </c>
       <c r="R37">
-        <v>236.018086627245</v>
+        <v>637.82169597696</v>
       </c>
       <c r="S37">
-        <v>0.0001227008448072176</v>
+        <v>5.706940233530052E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001518989727648791</v>
+        <v>8.020912750128391E-05</v>
       </c>
     </row>
   </sheetData>
